--- a/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC78C0C-2D8A-4AC6-AA42-85A2B67A42EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4265E8B4-7C20-461E-829F-2F6CBF17849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>TIME SHEET</t>
   </si>
@@ -50,25 +50,10 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>F</t>
+    <t xml:space="preserve">MONTH/YEAR   </t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTH/YEAR   </t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -148,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -200,69 +185,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -336,11 +258,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -355,49 +305,40 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -406,13 +347,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,67 +372,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139324" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5CEFA3-3961-D760-D41A-C0DE808A9D56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3638550" y="923925"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -894,143 +771,90 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
+      <c r="C1" s="2"/>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="23" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="8">
-        <v>10</v>
+    <row r="6" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
       </c>
-      <c r="D6" s="8">
-        <v>11</v>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
       </c>
-      <c r="E6" s="8">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8">
-        <v>13</v>
-      </c>
-      <c r="G6" s="8">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9">
-        <v>16</v>
-      </c>
-      <c r="J6" s="24"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J8" s="5"/>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0.25" header="0.5" footer="0.5"/>

--- a/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4265E8B4-7C20-461E-829F-2F6CBF17849A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF5501-49AD-423F-BE40-75E4685D9C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2970" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>TIME SHEET</t>
   </si>
@@ -55,6 +55,9 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>PM</t>
+  </si>
 </sst>
 </file>
 
@@ -323,12 +326,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -351,6 +348,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,7 +384,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2000250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -774,7 +775,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -786,52 +787,55 @@
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="21"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -849,12 +853,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0.25" header="0.5" footer="0.5"/>

--- a/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF5501-49AD-423F-BE40-75E4685D9C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86BA1EB-E1C1-4EB6-A16C-087CA6D6693A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="13" r:id="rId1"/>
@@ -145,21 +145,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -200,36 +185,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -289,11 +244,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -308,50 +306,53 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,7 +776,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -790,11 +791,11 @@
     <row r="1" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -802,46 +803,46 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="19"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="9"/>

--- a/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86BA1EB-E1C1-4EB6-A16C-087CA6D6693A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA6A373-A122-4EBB-B8AC-9722FED584AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>TIME SHEET</t>
   </si>
@@ -58,6 +58,9 @@
   <si>
     <t>PM</t>
   </si>
+  <si>
+    <t>PHASE</t>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +69,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -84,12 +87,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -136,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -158,21 +155,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -261,6 +243,32 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -291,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -306,53 +314,61 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,8 +398,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -452,9 +468,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -492,9 +508,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -527,26 +543,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,26 +578,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,96 +755,102 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="4" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="12"/>
+      <c r="E1" s="13"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="16"/>
+    <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:5" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="5"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:E4"/>
+  <mergeCells count="7">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0" bottom="0.25" header="0.5" footer="0.5"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>

--- a/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA6A373-A122-4EBB-B8AC-9722FED584AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D6D269-4230-4A1E-8F25-797E0A723C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="13" r:id="rId1"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -850,7 +850,7 @@
     <mergeCell ref="B5:B6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>

--- a/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D6D269-4230-4A1E-8F25-797E0A723C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C053D9C-6254-4AE7-A33E-EB7AC7C2B00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet" sheetId="13" r:id="rId1"/>
+    <sheet name="ExpenseReport" sheetId="14" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Timesheet!$1:$6</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>TIME SHEET</t>
   </si>
@@ -60,19 +61,80 @@
   </si>
   <si>
     <t>PHASE</t>
+  </si>
+  <si>
+    <t>EXPENSE REPORT</t>
+  </si>
+  <si>
+    <t>EMPLOYEE NAME</t>
+  </si>
+  <si>
+    <t>MILEAGE RATE</t>
+  </si>
+  <si>
+    <t>PAY PERIOD BEGINNING</t>
+  </si>
+  <si>
+    <t>PAY PERIOD ENDING</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>PROJECT NUMBER</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF EXPENSE</t>
+  </si>
+  <si>
+    <t>HOTEL</t>
+  </si>
+  <si>
+    <t>TRANSPORT</t>
+  </si>
+  <si>
+    <t>PARKING</t>
+  </si>
+  <si>
+    <t>MEALS</t>
+  </si>
+  <si>
+    <t>MISC.</t>
+  </si>
+  <si>
+    <t>MILEAGE</t>
+  </si>
+  <si>
+    <t>MILEAGE TOTAL</t>
+  </si>
+  <si>
+    <t>TOTALS</t>
+  </si>
+  <si>
+    <t>AMOUNT REFLECTED IN NEXT PAYCHECK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000_);\(&quot;$&quot;#,##0.000\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -118,8 +180,67 @@
       <name val="Verdana Pro Cond Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFC92127"/>
+      <name val="Verdana Pro Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana Pro Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Verdana Pro Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Verdana Pro Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana Pro Cond Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Verdana Pro Cond Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +253,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF636466"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -295,85 +428,302 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF636466"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF636466"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF636466"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF636466"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF636466"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF636466"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF636466"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF636466"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Date" xfId="3" xr:uid="{D4B040D2-F4D9-4A89-B680-D86F90EDBA81}"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="2" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,6 +810,61 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE1C9B72-B934-4248-BEA6-98B74F1371B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="167640" y="160020"/>
+          <a:ext cx="4415790" cy="1019757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -757,8 +1162,8 @@
   <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -774,10 +1179,10 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -785,44 +1190,44 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="50" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -855,4 +1260,266 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1A06F3-115A-4089-A029-4A1BD9A25C4D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="13"/>
+      <c r="H1" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="13"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="13"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="13"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32">
+        <f>SUM(I16*K9)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="33">
+        <f>SUM(D16+E16+F16+G16+H16+J16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37">
+        <f t="shared" ref="D17:K17" si="0">SUM(D16:D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="H19" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="41">
+        <f>K17</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H1:K4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="H11:J11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter company name and address in cells below" sqref="H1" xr:uid="{5D9920F4-7F67-42ED-866E-07387E8DB330}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/TimesheetBase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C053D9C-6254-4AE7-A33E-EB7AC7C2B00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF0A5D6-F746-4580-92EE-1364EF52E79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>TIME SHEET</t>
   </si>
@@ -63,21 +63,12 @@
     <t>PHASE</t>
   </si>
   <si>
-    <t>EXPENSE REPORT</t>
-  </si>
-  <si>
     <t>EMPLOYEE NAME</t>
   </si>
   <si>
-    <t>MILEAGE RATE</t>
-  </si>
-  <si>
     <t>PAY PERIOD BEGINNING</t>
   </si>
   <si>
-    <t>PAY PERIOD ENDING</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -87,44 +78,31 @@
     <t>DESCRIPTION OF EXPENSE</t>
   </si>
   <si>
-    <t>HOTEL</t>
-  </si>
-  <si>
-    <t>TRANSPORT</t>
-  </si>
-  <si>
-    <t>PARKING</t>
-  </si>
-  <si>
-    <t>MEALS</t>
-  </si>
-  <si>
-    <t>MISC.</t>
-  </si>
-  <si>
     <t>MILEAGE</t>
   </si>
   <si>
-    <t>MILEAGE TOTAL</t>
-  </si>
-  <si>
     <t>TOTALS</t>
   </si>
   <si>
-    <t>AMOUNT REFLECTED IN NEXT PAYCHECK</t>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILEAGE RATE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAY PERIOD ENDING   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.000_);\(&quot;$&quot;#,##0.000\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -216,12 +194,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Verdana Pro Cond Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="Verdana Pro Cond Light"/>
       <family val="2"/>
     </font>
@@ -266,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -518,17 +490,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF636466"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF636466"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -539,7 +500,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -581,7 +542,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -609,9 +569,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,28 +581,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="17" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="17" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -654,6 +609,21 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -690,17 +660,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -714,9 +678,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -827,8 +789,8 @@
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>430530</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1154430</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>46302</xdr:rowOff>
     </xdr:to>
@@ -1179,10 +1141,10 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -1190,44 +1152,44 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="51" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="49"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="51"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1267,10 +1229,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1278,246 +1240,158 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="13"/>
-      <c r="H1" s="58" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="13"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="13"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="13"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="14"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="42"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="13"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="13"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
+      <c r="B10" s="59"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="61" t="s">
+      <c r="E11" s="56"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="D12" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="13"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="16"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="61" t="s">
+      <c r="B15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="61" t="s">
+      <c r="C15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="13"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="I13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="D15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="F15" s="24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32">
-        <f>SUM(I16*K9)</f>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34">
+        <f>SUM(E16:E16)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="33">
-        <f>SUM(D16+E16+F16+G16+H16+J16)</f>
+      <c r="F17" s="35">
+        <f t="shared" ref="F17" si="0">SUM(F16:F16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37">
-        <f t="shared" ref="D17:K17" si="0">SUM(D16:D16)</f>
+    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="37">
+        <f>F17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="40"/>
-    </row>
-    <row r="19" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="H19" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="41">
-        <f>K17</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H1:K4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H9:J9"/>
+  <mergeCells count="6">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E1:F4"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter company name and address in cells below" sqref="H1" xr:uid="{5D9920F4-7F67-42ED-866E-07387E8DB330}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
